--- a/template/mail_trigger.xlsx
+++ b/template/mail_trigger.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charles\Documents\UiPath\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charles\Documents\UiPath\어텐디드자동화_이메일트리거\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DC2AF0-743D-42B0-81AC-EDE709C27C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA406E9-974B-4048-A69B-A03A5480D7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4215" yWindow="6870" windowWidth="21323" windowHeight="11333" xr2:uid="{5A6F74E5-2A93-4088-BDD0-0EACB3090E2B}"/>
+    <workbookView xWindow="1485" yWindow="6803" windowWidth="21323" windowHeight="11332" xr2:uid="{5A6F74E5-2A93-4088-BDD0-0EACB3090E2B}"/>
   </bookViews>
   <sheets>
     <sheet name="메일 규칙" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>보낸사람</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,6 +74,10 @@
   </si>
   <si>
     <t>어텐디드자동화_UIDemo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진입점</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0591270-A5D8-4633-8819-D1AC1BFECA85}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999"/>
@@ -474,9 +478,10 @@
     <col min="1" max="1" width="27.5625" customWidth="1"/>
     <col min="2" max="2" width="23.875" customWidth="1"/>
     <col min="3" max="3" width="35.6875" customWidth="1"/>
+    <col min="4" max="4" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,8 +494,11 @@
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -504,7 +512,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
